--- a/data/pca/factorExposure/factorExposure_2018-08-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03815131335488935</v>
+        <v>-0.03003897165628086</v>
       </c>
       <c r="C2">
-        <v>0.03992664521690914</v>
+        <v>-0.01526311242257238</v>
       </c>
       <c r="D2">
-        <v>0.03752050441497743</v>
+        <v>-0.01543419397857584</v>
       </c>
       <c r="E2">
-        <v>-0.04963284818400622</v>
+        <v>0.01448185328685339</v>
       </c>
       <c r="F2">
-        <v>-0.1427775123605703</v>
+        <v>-0.02091706085598216</v>
       </c>
       <c r="G2">
-        <v>-0.0542706496925953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08441517947421455</v>
+      </c>
+      <c r="H2">
+        <v>0.01912880761621599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1232452305147778</v>
+        <v>-0.08215737643410127</v>
       </c>
       <c r="C3">
-        <v>-0.0008698719348678236</v>
+        <v>0.0133558216868353</v>
       </c>
       <c r="D3">
-        <v>0.02519741622699175</v>
+        <v>-0.01910806528414288</v>
       </c>
       <c r="E3">
-        <v>-0.09521172460176555</v>
+        <v>0.005567308639712412</v>
       </c>
       <c r="F3">
-        <v>-0.3870041907257635</v>
+        <v>0.01800900502747296</v>
       </c>
       <c r="G3">
-        <v>-0.1694783100285749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2702248270932801</v>
+      </c>
+      <c r="H3">
+        <v>0.03741444699820876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.055019170754732</v>
+        <v>-0.04926094767313813</v>
       </c>
       <c r="C4">
-        <v>0.03530712696121328</v>
+        <v>-0.003771465411942556</v>
       </c>
       <c r="D4">
-        <v>-0.0007855342903860875</v>
+        <v>-0.03476622298896897</v>
       </c>
       <c r="E4">
-        <v>-0.06390899720140082</v>
+        <v>-0.02108919078220814</v>
       </c>
       <c r="F4">
-        <v>-0.07145294018257306</v>
+        <v>-0.05381958230279302</v>
       </c>
       <c r="G4">
-        <v>-0.04824711443255435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05360215415707231</v>
+      </c>
+      <c r="H4">
+        <v>0.02626265341831134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01307962942471287</v>
+        <v>-0.02609323166990801</v>
       </c>
       <c r="C6">
-        <v>-0.003112980742004801</v>
+        <v>-0.004683910497060732</v>
       </c>
       <c r="D6">
-        <v>0.01477081264139561</v>
+        <v>-0.04789420384027836</v>
       </c>
       <c r="E6">
-        <v>-0.02234646237490657</v>
+        <v>-0.00713865867832768</v>
       </c>
       <c r="F6">
-        <v>-0.01236896942002426</v>
+        <v>-0.03789485175491997</v>
       </c>
       <c r="G6">
-        <v>0.003257341938964153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01617128161393842</v>
+      </c>
+      <c r="H6">
+        <v>0.04961933162414658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02768455014404769</v>
+        <v>-0.02147700854043664</v>
       </c>
       <c r="C7">
-        <v>0.01343385832659996</v>
+        <v>-0.002820126925991039</v>
       </c>
       <c r="D7">
-        <v>0.03396235272793836</v>
+        <v>-0.01937960805264058</v>
       </c>
       <c r="E7">
-        <v>-0.0360380654602107</v>
+        <v>-0.03532704597623872</v>
       </c>
       <c r="F7">
-        <v>-0.06111838266892271</v>
+        <v>-0.01800714379681684</v>
       </c>
       <c r="G7">
-        <v>-0.05695080298944546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04020483979330294</v>
+      </c>
+      <c r="H7">
+        <v>0.0154162220477633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01851710042786183</v>
+        <v>-0.007040968643557228</v>
       </c>
       <c r="C8">
-        <v>0.0135036150703209</v>
+        <v>0.002624814483476527</v>
       </c>
       <c r="D8">
-        <v>-0.003166415218335748</v>
+        <v>-0.009549943737670407</v>
       </c>
       <c r="E8">
-        <v>-0.07058828225454007</v>
+        <v>-0.01168584042981004</v>
       </c>
       <c r="F8">
-        <v>-0.08486781011462807</v>
+        <v>-0.02549756857971307</v>
       </c>
       <c r="G8">
-        <v>-0.06773059693317711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05793487450424241</v>
+      </c>
+      <c r="H8">
+        <v>0.006636345150151426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04593238419759902</v>
+        <v>-0.04121361984792483</v>
       </c>
       <c r="C9">
-        <v>0.02766838352611917</v>
+        <v>0.0007215996331579206</v>
       </c>
       <c r="D9">
-        <v>-0.01194261153634245</v>
+        <v>-0.02856691616113236</v>
       </c>
       <c r="E9">
-        <v>-0.06867451053804188</v>
+        <v>-0.01883719923508509</v>
       </c>
       <c r="F9">
-        <v>-0.06512139709593158</v>
+        <v>-0.03209694613018508</v>
       </c>
       <c r="G9">
-        <v>-0.05034531537834664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06282426989683053</v>
+      </c>
+      <c r="H9">
+        <v>0.02467985254436503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04946449666215896</v>
+        <v>-0.1003838347405252</v>
       </c>
       <c r="C10">
-        <v>0.04180713757703025</v>
+        <v>0.03245208616852281</v>
       </c>
       <c r="D10">
-        <v>-0.02733773333812828</v>
+        <v>0.147254051958032</v>
       </c>
       <c r="E10">
-        <v>0.1150003547777347</v>
+        <v>0.01827078121127472</v>
       </c>
       <c r="F10">
-        <v>-0.07669087186865932</v>
+        <v>0.06408086342094584</v>
       </c>
       <c r="G10">
-        <v>0.03838911163880084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02237939936338703</v>
+      </c>
+      <c r="H10">
+        <v>0.004350265650686232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03419643089787616</v>
+        <v>-0.02269232572273826</v>
       </c>
       <c r="C11">
-        <v>0.009770556552447449</v>
+        <v>0.008068131764501957</v>
       </c>
       <c r="D11">
-        <v>0.01903841753649298</v>
+        <v>-0.03435669358796623</v>
       </c>
       <c r="E11">
-        <v>-0.03589778080031035</v>
+        <v>0.003260485955292706</v>
       </c>
       <c r="F11">
-        <v>-0.0333163389327189</v>
+        <v>-0.01872757553458847</v>
       </c>
       <c r="G11">
-        <v>-0.02223186106587519</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03677747793434324</v>
+      </c>
+      <c r="H11">
+        <v>0.02752000302591755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04192859103810768</v>
+        <v>-0.03159444762405456</v>
       </c>
       <c r="C12">
-        <v>0.01049185747115329</v>
+        <v>0.006513787661700339</v>
       </c>
       <c r="D12">
-        <v>0.006232863850898792</v>
+        <v>-0.03446458150473028</v>
       </c>
       <c r="E12">
-        <v>-0.04512325788247338</v>
+        <v>-0.008104692888353049</v>
       </c>
       <c r="F12">
-        <v>-0.01465578046884206</v>
+        <v>-0.02257653274717356</v>
       </c>
       <c r="G12">
-        <v>-0.01854171260587256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01440264054027436</v>
+      </c>
+      <c r="H12">
+        <v>0.01411450231934462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02194741868839833</v>
+        <v>-0.02745516540766813</v>
       </c>
       <c r="C13">
-        <v>0.02155410597862994</v>
+        <v>-0.01313779363453693</v>
       </c>
       <c r="D13">
-        <v>0.03321661514948587</v>
+        <v>-0.002640023666071045</v>
       </c>
       <c r="E13">
-        <v>-0.01688815490807136</v>
+        <v>0.01765113811989526</v>
       </c>
       <c r="F13">
-        <v>-0.08959729227844412</v>
+        <v>-0.01745101428562774</v>
       </c>
       <c r="G13">
-        <v>-0.03477723288559384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07143368557206799</v>
+      </c>
+      <c r="H13">
+        <v>0.02650702745911357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01275535772520078</v>
+        <v>-0.01745976509303057</v>
       </c>
       <c r="C14">
-        <v>0.01430966815911735</v>
+        <v>-0.0001816401247595919</v>
       </c>
       <c r="D14">
-        <v>0.005703924119575098</v>
+        <v>-0.003392599404514746</v>
       </c>
       <c r="E14">
-        <v>-0.04023388149574801</v>
+        <v>-0.008523150976866498</v>
       </c>
       <c r="F14">
-        <v>-0.06132813005890118</v>
+        <v>-0.02027961604313082</v>
       </c>
       <c r="G14">
-        <v>-0.06676586228422314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04707989985930253</v>
+      </c>
+      <c r="H14">
+        <v>-0.01812488613800321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02559197873537337</v>
+        <v>-0.02410307227034005</v>
       </c>
       <c r="C16">
-        <v>0.01080001964022377</v>
+        <v>0.0086378762753392</v>
       </c>
       <c r="D16">
-        <v>0.01667139227327106</v>
+        <v>-0.03005628091296762</v>
       </c>
       <c r="E16">
-        <v>-0.03434689382068875</v>
+        <v>-0.001485541050265434</v>
       </c>
       <c r="F16">
-        <v>-0.03907608842457804</v>
+        <v>-0.02103699299427556</v>
       </c>
       <c r="G16">
-        <v>-0.02524569688932134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03277094870628434</v>
+      </c>
+      <c r="H16">
+        <v>0.02138619162240806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04092814205668785</v>
+        <v>-0.03407479372355936</v>
       </c>
       <c r="C19">
-        <v>0.008195260258166925</v>
+        <v>-6.143908792378558e-05</v>
       </c>
       <c r="D19">
-        <v>0.01751222558888983</v>
+        <v>-0.01489312576004716</v>
       </c>
       <c r="E19">
-        <v>-0.05451844122287963</v>
+        <v>-0.0002173646343590831</v>
       </c>
       <c r="F19">
-        <v>-0.09831534981771331</v>
+        <v>-0.02744186083297644</v>
       </c>
       <c r="G19">
-        <v>-0.0460267645158279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07538416145594881</v>
+      </c>
+      <c r="H19">
+        <v>0.03545860617893715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0003920665559825867</v>
+        <v>-0.01077980454582418</v>
       </c>
       <c r="C20">
-        <v>0.02224937753627952</v>
+        <v>-0.00608175840288844</v>
       </c>
       <c r="D20">
-        <v>0.009857037857894864</v>
+        <v>-0.002311103788138813</v>
       </c>
       <c r="E20">
-        <v>-0.03587222527570417</v>
+        <v>-0.0005445942290788553</v>
       </c>
       <c r="F20">
-        <v>-0.06213688389833417</v>
+        <v>-0.01611567330979066</v>
       </c>
       <c r="G20">
-        <v>-0.06846390936288387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05312033182857298</v>
+      </c>
+      <c r="H20">
+        <v>-0.01028293148603551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0002934954374597147</v>
+        <v>-0.02280004463747335</v>
       </c>
       <c r="C21">
-        <v>-0.006780333902095307</v>
+        <v>-0.005771009337259293</v>
       </c>
       <c r="D21">
-        <v>0.006738167592135592</v>
+        <v>-0.005119739227294854</v>
       </c>
       <c r="E21">
-        <v>-0.04322864751083463</v>
+        <v>-0.0116096032340265</v>
       </c>
       <c r="F21">
-        <v>-0.06071783550297225</v>
+        <v>-0.007266383372226367</v>
       </c>
       <c r="G21">
-        <v>-0.03085724383673905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05705404833439886</v>
+      </c>
+      <c r="H21">
+        <v>0.008857293298250295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03323247401595487</v>
+        <v>-0.02217873790444366</v>
       </c>
       <c r="C24">
-        <v>0.014805843552392</v>
+        <v>0.003177484563340307</v>
       </c>
       <c r="D24">
-        <v>0.01329275733821289</v>
+        <v>-0.03109631550333427</v>
       </c>
       <c r="E24">
-        <v>-0.02295204505050562</v>
+        <v>-0.001627219128057077</v>
       </c>
       <c r="F24">
-        <v>-0.0319823508317568</v>
+        <v>-0.01688809006602227</v>
       </c>
       <c r="G24">
-        <v>-0.02008479871028587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03070805274925558</v>
+      </c>
+      <c r="H24">
+        <v>0.02546188862933244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03203269888687688</v>
+        <v>-0.03315550815528941</v>
       </c>
       <c r="C25">
-        <v>0.008362845367700444</v>
+        <v>0.001632881141378272</v>
       </c>
       <c r="D25">
-        <v>0.009681837526911695</v>
+        <v>-0.02778766260135387</v>
       </c>
       <c r="E25">
-        <v>-0.04032521834108063</v>
+        <v>-0.002583470934851383</v>
       </c>
       <c r="F25">
-        <v>-0.03213365397328207</v>
+        <v>-0.02196070390445295</v>
       </c>
       <c r="G25">
-        <v>-0.006829897484331815</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03474475644555625</v>
+      </c>
+      <c r="H25">
+        <v>0.02861664274337709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02034359977815264</v>
+        <v>-0.02004403444081566</v>
       </c>
       <c r="C26">
-        <v>-0.006331780236716254</v>
+        <v>-0.01735792578094042</v>
       </c>
       <c r="D26">
-        <v>0.03542329637032172</v>
+        <v>-0.004521521283196985</v>
       </c>
       <c r="E26">
-        <v>-0.03984855219682882</v>
+        <v>0.007048146891095149</v>
       </c>
       <c r="F26">
-        <v>-0.05794420018945738</v>
+        <v>-0.003474576758008414</v>
       </c>
       <c r="G26">
-        <v>-0.03293384730365699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03866562104763565</v>
+      </c>
+      <c r="H26">
+        <v>-0.003104248021895651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07691491873615018</v>
+        <v>-0.0311152142142883</v>
       </c>
       <c r="C27">
-        <v>0.04731682844925351</v>
+        <v>0.01169415380570779</v>
       </c>
       <c r="D27">
-        <v>0.000574602096491178</v>
+        <v>-0.01315626311854985</v>
       </c>
       <c r="E27">
-        <v>-0.05161337911367656</v>
+        <v>-0.006631925066884954</v>
       </c>
       <c r="F27">
-        <v>-0.05142297060614521</v>
+        <v>-0.02414144692636465</v>
       </c>
       <c r="G27">
-        <v>-0.05391063793492865</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02805697286695035</v>
+      </c>
+      <c r="H27">
+        <v>-0.002261410716811218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07259610888452336</v>
+        <v>-0.1505219175532032</v>
       </c>
       <c r="C28">
-        <v>0.06045165633565221</v>
+        <v>0.03536139695226511</v>
       </c>
       <c r="D28">
-        <v>-0.05516802974703992</v>
+        <v>0.2174542658113593</v>
       </c>
       <c r="E28">
-        <v>0.1714823179472501</v>
+        <v>0.02053813039629471</v>
       </c>
       <c r="F28">
-        <v>-0.09524386804033005</v>
+        <v>0.08326972235936204</v>
       </c>
       <c r="G28">
-        <v>0.01239592980133488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.008383307411244701</v>
+      </c>
+      <c r="H28">
+        <v>-0.01369597488850169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0220949070686132</v>
+        <v>-0.02268109306995999</v>
       </c>
       <c r="C29">
-        <v>0.01741149328979111</v>
+        <v>0.002092284869740165</v>
       </c>
       <c r="D29">
-        <v>-0.0005450916818379058</v>
+        <v>-0.005240048256855699</v>
       </c>
       <c r="E29">
-        <v>-0.05490639123270371</v>
+        <v>-0.01000749841499486</v>
       </c>
       <c r="F29">
-        <v>-0.04573553985135118</v>
+        <v>-0.02309158008517808</v>
       </c>
       <c r="G29">
-        <v>-0.06550909950861139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03946917494022743</v>
+      </c>
+      <c r="H29">
+        <v>-0.01884326597676356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09152843437859622</v>
+        <v>-0.05521915940649244</v>
       </c>
       <c r="C30">
-        <v>0.05042005778968428</v>
+        <v>-0.003854142948475957</v>
       </c>
       <c r="D30">
-        <v>0.04263491255756687</v>
+        <v>-0.06125357393975367</v>
       </c>
       <c r="E30">
-        <v>-0.08419488125701094</v>
+        <v>0.03286789503330386</v>
       </c>
       <c r="F30">
-        <v>-0.04619661967559015</v>
+        <v>-0.06579920504899016</v>
       </c>
       <c r="G30">
-        <v>-0.04897771344464582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06746066166685094</v>
+      </c>
+      <c r="H30">
+        <v>0.03360352199921798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06385897158333932</v>
+        <v>-0.05558390728839165</v>
       </c>
       <c r="C31">
-        <v>0.0134001689885281</v>
+        <v>0.01434641983675972</v>
       </c>
       <c r="D31">
-        <v>0.04854378262767828</v>
+        <v>-0.02832967188599301</v>
       </c>
       <c r="E31">
-        <v>-0.03001051582620961</v>
+        <v>0.008318648793452947</v>
       </c>
       <c r="F31">
-        <v>-0.03965495870523793</v>
+        <v>-0.01836997608851356</v>
       </c>
       <c r="G31">
-        <v>-0.07714740606153245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02432340816171851</v>
+      </c>
+      <c r="H31">
+        <v>-0.01497690433469817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02237753029451914</v>
+        <v>-0.01492710519098748</v>
       </c>
       <c r="C32">
-        <v>0.02548594195104834</v>
+        <v>0.01588751170404235</v>
       </c>
       <c r="D32">
-        <v>0.005375527500128904</v>
+        <v>0.004855012606436153</v>
       </c>
       <c r="E32">
-        <v>-0.07531951354294242</v>
+        <v>-0.01842418143507369</v>
       </c>
       <c r="F32">
-        <v>-0.05870443177458742</v>
+        <v>-0.04582508542891765</v>
       </c>
       <c r="G32">
-        <v>-0.05130575766320829</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05783373047901618</v>
+      </c>
+      <c r="H32">
+        <v>0.04325288211374825</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05543770602780126</v>
+        <v>-0.04031368133476095</v>
       </c>
       <c r="C33">
-        <v>-0.003512552460104932</v>
+        <v>0.0006418515287223297</v>
       </c>
       <c r="D33">
-        <v>0.04412696267167057</v>
+        <v>-0.03244870162137201</v>
       </c>
       <c r="E33">
-        <v>-0.0696327036155515</v>
+        <v>0.02215666582363043</v>
       </c>
       <c r="F33">
-        <v>-0.08971479560687066</v>
+        <v>-0.009767856715241389</v>
       </c>
       <c r="G33">
-        <v>-0.04916994503092882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06514509576404037</v>
+      </c>
+      <c r="H33">
+        <v>0.01469096337328749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03353707085506249</v>
+        <v>-0.02862115444257668</v>
       </c>
       <c r="C34">
-        <v>0.01284026498518667</v>
+        <v>0.0168918980885541</v>
       </c>
       <c r="D34">
-        <v>0.01380124559506453</v>
+        <v>-0.0317219525202424</v>
       </c>
       <c r="E34">
-        <v>-0.0470759027596999</v>
+        <v>-0.006432407541560193</v>
       </c>
       <c r="F34">
-        <v>-0.0384313170306582</v>
+        <v>-0.0202773565533405</v>
       </c>
       <c r="G34">
-        <v>-0.0197211013842956</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02874378936572158</v>
+      </c>
+      <c r="H34">
+        <v>0.02286453119350771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01417254702566968</v>
+        <v>-0.02250783190312011</v>
       </c>
       <c r="C36">
-        <v>0.008610689565785522</v>
+        <v>-0.003124957737497692</v>
       </c>
       <c r="D36">
-        <v>0.002740828636353559</v>
+        <v>0.001536710474061283</v>
       </c>
       <c r="E36">
-        <v>-0.02842785948861126</v>
+        <v>-0.002045162336366377</v>
       </c>
       <c r="F36">
-        <v>-0.02356753776227745</v>
+        <v>-0.007473870658291485</v>
       </c>
       <c r="G36">
-        <v>-0.03521811484215073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02091116983698801</v>
+      </c>
+      <c r="H36">
+        <v>-0.004520432028358667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0005325674718568539</v>
+        <v>-0.02233483026142179</v>
       </c>
       <c r="C38">
-        <v>-0.005951064532804459</v>
+        <v>0.01651541618260671</v>
       </c>
       <c r="D38">
-        <v>-0.01605892548080154</v>
+        <v>0.000114689540894598</v>
       </c>
       <c r="E38">
-        <v>0.001347864544687088</v>
+        <v>-0.005040868682818817</v>
       </c>
       <c r="F38">
-        <v>-0.01880282289632525</v>
+        <v>-0.009883143848110216</v>
       </c>
       <c r="G38">
-        <v>0.009399364522216101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03030499601000777</v>
+      </c>
+      <c r="H38">
+        <v>0.02090683796168549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03984934805188618</v>
+        <v>-0.0210335581349128</v>
       </c>
       <c r="C39">
-        <v>0.01747604193173462</v>
+        <v>0.0001634929160921694</v>
       </c>
       <c r="D39">
-        <v>0.03505379012701519</v>
+        <v>-0.07204389072605787</v>
       </c>
       <c r="E39">
-        <v>-0.04877472398060054</v>
+        <v>0.001190841467709656</v>
       </c>
       <c r="F39">
-        <v>-0.0433784745070968</v>
+        <v>-0.03593749151809927</v>
       </c>
       <c r="G39">
-        <v>-0.01953734829991223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0573706817360496</v>
+      </c>
+      <c r="H39">
+        <v>0.04897017070064531</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03300154061109647</v>
+        <v>-0.03476656397864467</v>
       </c>
       <c r="C40">
-        <v>0.04163210914561776</v>
+        <v>0.002056574504752774</v>
       </c>
       <c r="D40">
-        <v>0.05721264499070151</v>
+        <v>-0.01585763490382076</v>
       </c>
       <c r="E40">
-        <v>-0.03108341366878261</v>
+        <v>0.02122430995582515</v>
       </c>
       <c r="F40">
-        <v>-0.08994566130778697</v>
+        <v>-0.03290120786953513</v>
       </c>
       <c r="G40">
-        <v>-0.04560359183145447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.05286974631201755</v>
+      </c>
+      <c r="H40">
+        <v>0.04633679518387838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0006040766262573537</v>
+        <v>-0.01150120592947159</v>
       </c>
       <c r="C41">
-        <v>-0.009564830810858637</v>
+        <v>-0.0002963329033604074</v>
       </c>
       <c r="D41">
-        <v>0.006085719070130943</v>
+        <v>0.009419761148389752</v>
       </c>
       <c r="E41">
-        <v>-0.01588182260298072</v>
+        <v>0.002411394687485407</v>
       </c>
       <c r="F41">
-        <v>-0.011143421296039</v>
+        <v>0.004146022411285927</v>
       </c>
       <c r="G41">
-        <v>-0.05591641021403368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.009427262961114445</v>
+      </c>
+      <c r="H41">
+        <v>-0.01708215289987057</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3414120163331436</v>
+        <v>-0.1705194955385393</v>
       </c>
       <c r="C42">
-        <v>-0.8969847806380872</v>
+        <v>-0.1111300324223632</v>
       </c>
       <c r="D42">
-        <v>0.1580800511457358</v>
+        <v>-0.4954826187750728</v>
       </c>
       <c r="E42">
-        <v>0.1463021723778423</v>
+        <v>0.1441195213191124</v>
       </c>
       <c r="F42">
-        <v>0.05274017696380384</v>
+        <v>0.8147676780033464</v>
       </c>
       <c r="G42">
-        <v>-0.02401656696294131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1032644560590085</v>
+      </c>
+      <c r="H42">
+        <v>0.01299366671673832</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006395653576531149</v>
+        <v>-0.01200712689222062</v>
       </c>
       <c r="C43">
-        <v>-0.006410088408686287</v>
+        <v>-0.001499146997716161</v>
       </c>
       <c r="D43">
-        <v>0.01003096334004916</v>
+        <v>0.0133767420830492</v>
       </c>
       <c r="E43">
-        <v>-0.0183014910366502</v>
+        <v>0.008121043573615492</v>
       </c>
       <c r="F43">
-        <v>-0.03097447103249181</v>
+        <v>0.009724190437747545</v>
       </c>
       <c r="G43">
-        <v>-0.05054484261702992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01836515814306707</v>
+      </c>
+      <c r="H43">
+        <v>-0.009835830294728932</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02081469145079147</v>
+        <v>-0.0167054251788123</v>
       </c>
       <c r="C44">
-        <v>-0.00373829126178727</v>
+        <v>0.0007130951880548178</v>
       </c>
       <c r="D44">
-        <v>0.0250912294818251</v>
+        <v>-0.02280376621943137</v>
       </c>
       <c r="E44">
-        <v>-0.06641167975237962</v>
+        <v>0.0003601125827837935</v>
       </c>
       <c r="F44">
-        <v>-0.1665016061628459</v>
+        <v>9.160635466411945e-05</v>
       </c>
       <c r="G44">
-        <v>-0.1617615378510643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0903780616273669</v>
+      </c>
+      <c r="H44">
+        <v>0.0128823937880149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.021244163932237</v>
+        <v>-0.02237791046226245</v>
       </c>
       <c r="C46">
-        <v>0.01394051608278623</v>
+        <v>-0.001826108342806985</v>
       </c>
       <c r="D46">
-        <v>0.02023777998427275</v>
+        <v>-0.01084620248204129</v>
       </c>
       <c r="E46">
-        <v>-0.06784749664170052</v>
+        <v>0.0002607982846989268</v>
       </c>
       <c r="F46">
-        <v>-0.06783250619357512</v>
+        <v>-0.02870447255988865</v>
       </c>
       <c r="G46">
-        <v>-0.05876566170048633</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05847803655224552</v>
+      </c>
+      <c r="H46">
+        <v>-0.01432007117217858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09817941597574599</v>
+        <v>-0.0773924606714653</v>
       </c>
       <c r="C47">
-        <v>0.02953914347668526</v>
+        <v>0.03009163977152253</v>
       </c>
       <c r="D47">
-        <v>0.02788950774999201</v>
+        <v>-0.03738403271621523</v>
       </c>
       <c r="E47">
-        <v>-0.03542965882400067</v>
+        <v>0.003594533069917513</v>
       </c>
       <c r="F47">
-        <v>0.0005596366818096008</v>
+        <v>-0.0295626585667034</v>
       </c>
       <c r="G47">
-        <v>-0.0898327245758844</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.009525082884988049</v>
+      </c>
+      <c r="H47">
+        <v>-0.03011476774360899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01555837102873219</v>
+        <v>-0.02296169934919955</v>
       </c>
       <c r="C48">
-        <v>0.002562545928957787</v>
+        <v>0.006718331312781935</v>
       </c>
       <c r="D48">
-        <v>0.01653214524391127</v>
+        <v>-0.004649426586758248</v>
       </c>
       <c r="E48">
-        <v>-0.03557421124469453</v>
+        <v>0.002714322803926789</v>
       </c>
       <c r="F48">
-        <v>-0.0399179139561325</v>
+        <v>-0.009587020252292302</v>
       </c>
       <c r="G48">
-        <v>-0.01857535881738416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02888684670263116</v>
+      </c>
+      <c r="H48">
+        <v>-0.0001578717413111439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09184360698749693</v>
+        <v>-0.07352365111819981</v>
       </c>
       <c r="C50">
-        <v>0.01265599384044949</v>
+        <v>0.0257599723274655</v>
       </c>
       <c r="D50">
-        <v>0.04057461497738985</v>
+        <v>-0.04396669107715369</v>
       </c>
       <c r="E50">
-        <v>-0.05029495444763103</v>
+        <v>-0.01045877121527348</v>
       </c>
       <c r="F50">
-        <v>-0.02745749805227179</v>
+        <v>-0.02262933034470423</v>
       </c>
       <c r="G50">
-        <v>-0.03703423205487624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02277940740890396</v>
+      </c>
+      <c r="H50">
+        <v>-0.026380038542923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.022636294981322</v>
+        <v>-0.02287929032618803</v>
       </c>
       <c r="C51">
-        <v>0.009859447965038279</v>
+        <v>0.0002250416315169063</v>
       </c>
       <c r="D51">
-        <v>0.02001567130504552</v>
+        <v>0.008936086229128573</v>
       </c>
       <c r="E51">
-        <v>-0.02206751148316703</v>
+        <v>0.007356070185737936</v>
       </c>
       <c r="F51">
-        <v>-0.1411491342819923</v>
+        <v>0.00522791712909205</v>
       </c>
       <c r="G51">
-        <v>-0.05868564608876502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07604103958259292</v>
+      </c>
+      <c r="H51">
+        <v>0.02350723969406771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1042672889701997</v>
+        <v>-0.09474831243646842</v>
       </c>
       <c r="C53">
-        <v>0.04423904055205369</v>
+        <v>0.03660876946393953</v>
       </c>
       <c r="D53">
-        <v>0.04267247278353402</v>
+        <v>-0.06946981929304932</v>
       </c>
       <c r="E53">
-        <v>-0.04295694250482464</v>
+        <v>-0.0006864995036643237</v>
       </c>
       <c r="F53">
-        <v>0.05079822116775596</v>
+        <v>-0.06193345571377902</v>
       </c>
       <c r="G53">
-        <v>-0.0278239310096532</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05522515821961937</v>
+      </c>
+      <c r="H53">
+        <v>-0.03468022567110866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01614243831357791</v>
+        <v>-0.0253278211317583</v>
       </c>
       <c r="C54">
-        <v>0.02708712432202706</v>
+        <v>0.01238444082277187</v>
       </c>
       <c r="D54">
-        <v>0.0008806856641412609</v>
+        <v>0.0182892764574898</v>
       </c>
       <c r="E54">
-        <v>-0.03661564176487547</v>
+        <v>-0.004939939869932565</v>
       </c>
       <c r="F54">
-        <v>-0.06041106728649383</v>
+        <v>-0.01213017091087147</v>
       </c>
       <c r="G54">
-        <v>-0.07578624353324612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03765997594066308</v>
+      </c>
+      <c r="H54">
+        <v>-0.01500458270547017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1005244369798824</v>
+        <v>-0.08038483940923308</v>
       </c>
       <c r="C55">
-        <v>0.03160022366313833</v>
+        <v>0.03197555323143666</v>
       </c>
       <c r="D55">
-        <v>0.005497508193384036</v>
+        <v>-0.06659953315516778</v>
       </c>
       <c r="E55">
-        <v>-0.05307605978535596</v>
+        <v>-0.01118663043030707</v>
       </c>
       <c r="F55">
-        <v>0.04474823229460082</v>
+        <v>-0.05136685521944329</v>
       </c>
       <c r="G55">
-        <v>-0.06537645382279005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03302702700851387</v>
+      </c>
+      <c r="H55">
+        <v>-0.04570036253998994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1469102950084365</v>
+        <v>-0.1304181991986921</v>
       </c>
       <c r="C56">
-        <v>0.07827778626668082</v>
+        <v>0.05619924997377299</v>
       </c>
       <c r="D56">
-        <v>0.03384062314102148</v>
+        <v>-0.0894163577027009</v>
       </c>
       <c r="E56">
-        <v>-0.04853142060627744</v>
+        <v>-0.004203354043442696</v>
       </c>
       <c r="F56">
-        <v>0.1552133364863459</v>
+        <v>-0.08674837970868396</v>
       </c>
       <c r="G56">
-        <v>0.005471710179705027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09935262057191656</v>
+      </c>
+      <c r="H56">
+        <v>-0.02758619711494861</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04253742720371655</v>
+        <v>-0.04289058705157851</v>
       </c>
       <c r="C57">
-        <v>0.01199463141636446</v>
+        <v>-0.008852516512397945</v>
       </c>
       <c r="D57">
-        <v>0.03126855437354888</v>
+        <v>-0.02149140358283063</v>
       </c>
       <c r="E57">
-        <v>-0.009681160658994712</v>
+        <v>0.01028115614884182</v>
       </c>
       <c r="F57">
-        <v>-0.07680186430923196</v>
+        <v>-0.02310098249746534</v>
       </c>
       <c r="G57">
-        <v>-0.03591366796406185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0635814364114954</v>
+      </c>
+      <c r="H57">
+        <v>0.01177374016830182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.197518687237967</v>
+        <v>-0.1461036970497856</v>
       </c>
       <c r="C58">
-        <v>0.01643989535143528</v>
+        <v>0.04021006120122787</v>
       </c>
       <c r="D58">
-        <v>0.1252256290399749</v>
+        <v>-0.1356314059124769</v>
       </c>
       <c r="E58">
-        <v>-0.2312807326273497</v>
+        <v>0.1100052820762729</v>
       </c>
       <c r="F58">
-        <v>-0.2522722547831387</v>
+        <v>-0.0208999891339778</v>
       </c>
       <c r="G58">
-        <v>0.03381179097364378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6711480576913741</v>
+      </c>
+      <c r="H58">
+        <v>-0.5514895951725938</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07184912918121865</v>
+        <v>-0.1558346605570601</v>
       </c>
       <c r="C59">
-        <v>0.08082375686390508</v>
+        <v>0.04287376952239106</v>
       </c>
       <c r="D59">
-        <v>-0.03791820799114309</v>
+        <v>0.2146521849500312</v>
       </c>
       <c r="E59">
-        <v>0.1399638929109255</v>
+        <v>0.0383301971163462</v>
       </c>
       <c r="F59">
-        <v>-0.09384686328477912</v>
+        <v>0.0657927407957264</v>
       </c>
       <c r="G59">
-        <v>0.03299350395423051</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01649440020152417</v>
+      </c>
+      <c r="H59">
+        <v>0.01933429644306328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1705854537377684</v>
+        <v>-0.1750365746033253</v>
       </c>
       <c r="C60">
-        <v>0.04710233344240584</v>
+        <v>0.03796060129425338</v>
       </c>
       <c r="D60">
-        <v>0.06306297129405093</v>
+        <v>-0.01875744293257506</v>
       </c>
       <c r="E60">
-        <v>-0.04225121543510948</v>
+        <v>0.05253968516591492</v>
       </c>
       <c r="F60">
-        <v>-0.1417116456412359</v>
+        <v>-0.04830318443501599</v>
       </c>
       <c r="G60">
-        <v>0.3345845140242272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1351763336360658</v>
+      </c>
+      <c r="H60">
+        <v>0.3771510001753324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02069493432163057</v>
+        <v>-0.02258918416204437</v>
       </c>
       <c r="C61">
-        <v>0.003401614421283327</v>
+        <v>0.005917618616844164</v>
       </c>
       <c r="D61">
-        <v>0.008795022328476622</v>
+        <v>-0.04037988362886188</v>
       </c>
       <c r="E61">
-        <v>-0.02797436167639258</v>
+        <v>-0.003547881019555638</v>
       </c>
       <c r="F61">
-        <v>-0.02041519485944103</v>
+        <v>-0.02495780523740901</v>
       </c>
       <c r="G61">
-        <v>-0.01765488180691919</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03305523745075638</v>
+      </c>
+      <c r="H61">
+        <v>0.03567759225664754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01678678543194848</v>
+        <v>-0.014009162071187</v>
       </c>
       <c r="C63">
-        <v>0.005698101663843554</v>
+        <v>-0.001797707415405617</v>
       </c>
       <c r="D63">
-        <v>0.01454405116173164</v>
+        <v>-0.009950579334849132</v>
       </c>
       <c r="E63">
-        <v>-0.0417321554615643</v>
+        <v>-0.002740967679827548</v>
       </c>
       <c r="F63">
-        <v>-0.008463638068463663</v>
+        <v>-0.01757729121067892</v>
       </c>
       <c r="G63">
-        <v>-0.04495755929590523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01600541325781701</v>
+      </c>
+      <c r="H63">
+        <v>-0.01347268384493975</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03970304310005871</v>
+        <v>-0.04413808878291381</v>
       </c>
       <c r="C64">
-        <v>0.02181597468174166</v>
+        <v>0.01100820492084077</v>
       </c>
       <c r="D64">
-        <v>-0.01793510193021264</v>
+        <v>-0.03528439018709616</v>
       </c>
       <c r="E64">
-        <v>-0.03957789441771284</v>
+        <v>-0.01038451096937367</v>
       </c>
       <c r="F64">
-        <v>-0.02351881548532694</v>
+        <v>-0.02103599239902091</v>
       </c>
       <c r="G64">
-        <v>-0.06651490143060322</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02251392791849876</v>
+      </c>
+      <c r="H64">
+        <v>0.02626433114972266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01344887538960504</v>
+        <v>-0.02861477041771876</v>
       </c>
       <c r="C65">
-        <v>-0.004556548823111563</v>
+        <v>-0.005737239851428828</v>
       </c>
       <c r="D65">
-        <v>0.01368086388586715</v>
+        <v>-0.05542896151308094</v>
       </c>
       <c r="E65">
-        <v>-0.02069955543493408</v>
+        <v>-0.008797314640856112</v>
       </c>
       <c r="F65">
-        <v>-0.00824633641669934</v>
+        <v>-0.04017544187864276</v>
       </c>
       <c r="G65">
-        <v>0.007533311092793377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.005447991232914552</v>
+      </c>
+      <c r="H65">
+        <v>0.05526409911755689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03923069982741128</v>
+        <v>-0.02839672349124439</v>
       </c>
       <c r="C66">
-        <v>0.01995406270724875</v>
+        <v>0.005180902647675767</v>
       </c>
       <c r="D66">
-        <v>0.02807176863720284</v>
+        <v>-0.08226719046778956</v>
       </c>
       <c r="E66">
-        <v>-0.04935891617863421</v>
+        <v>0.005343283850767507</v>
       </c>
       <c r="F66">
-        <v>-0.0395003091688198</v>
+        <v>-0.05401989175212843</v>
       </c>
       <c r="G66">
-        <v>-0.007281572345952765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04833793981711434</v>
+      </c>
+      <c r="H66">
+        <v>0.05713890103983061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01999985977261882</v>
+        <v>-0.04440924563242451</v>
       </c>
       <c r="C67">
-        <v>2.555867296479453e-05</v>
+        <v>0.02032692082892719</v>
       </c>
       <c r="D67">
-        <v>-0.0170979552998347</v>
+        <v>0.005161533775207019</v>
       </c>
       <c r="E67">
-        <v>0.02007185607659951</v>
+        <v>-0.001969866194423096</v>
       </c>
       <c r="F67">
-        <v>-0.02180888457062105</v>
+        <v>-0.01197990682318727</v>
       </c>
       <c r="G67">
-        <v>0.01188374128429463</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01860024185025672</v>
+      </c>
+      <c r="H67">
+        <v>0.03225970257826582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08165268512341214</v>
+        <v>-0.1548740779043667</v>
       </c>
       <c r="C68">
-        <v>0.06194033041766093</v>
+        <v>0.02103730867372473</v>
       </c>
       <c r="D68">
-        <v>-0.05368052957826006</v>
+        <v>0.2024147706446122</v>
       </c>
       <c r="E68">
-        <v>0.1709936657474566</v>
+        <v>0.03386022151073064</v>
       </c>
       <c r="F68">
-        <v>-0.07199662673348958</v>
+        <v>0.08881029764803287</v>
       </c>
       <c r="G68">
-        <v>0.06631091487635739</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01287520848269687</v>
+      </c>
+      <c r="H68">
+        <v>-0.04123695180074558</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07217665603950285</v>
+        <v>-0.06149368196415976</v>
       </c>
       <c r="C69">
-        <v>0.02618182482697456</v>
+        <v>0.02828434087669109</v>
       </c>
       <c r="D69">
-        <v>0.0274632490292548</v>
+        <v>-0.03504164921053785</v>
       </c>
       <c r="E69">
-        <v>-0.01398233045336456</v>
+        <v>0.004508741442312467</v>
       </c>
       <c r="F69">
-        <v>-0.01001423789812268</v>
+        <v>-0.02804224562088712</v>
       </c>
       <c r="G69">
-        <v>-0.07748596038225285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0004031089144157946</v>
+      </c>
+      <c r="H69">
+        <v>-0.009114640430728817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.09816061467689265</v>
+        <v>-0.1472570902315482</v>
       </c>
       <c r="C71">
-        <v>0.06325184715484068</v>
+        <v>0.02880220810271631</v>
       </c>
       <c r="D71">
-        <v>-0.03410912209733945</v>
+        <v>0.1873250749855558</v>
       </c>
       <c r="E71">
-        <v>0.212255747482192</v>
+        <v>0.03371754174053974</v>
       </c>
       <c r="F71">
-        <v>-0.08688665906164088</v>
+        <v>0.093910647974116</v>
       </c>
       <c r="G71">
-        <v>0.03364054267068645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01062195911489657</v>
+      </c>
+      <c r="H71">
+        <v>-0.02538382988154142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1122804143535585</v>
+        <v>-0.09006051667992952</v>
       </c>
       <c r="C72">
-        <v>0.0883320135960517</v>
+        <v>0.04195187427532556</v>
       </c>
       <c r="D72">
-        <v>0.02143609501268124</v>
+        <v>-0.07189332534591551</v>
       </c>
       <c r="E72">
-        <v>-0.07744251869401851</v>
+        <v>0.004480374748997831</v>
       </c>
       <c r="F72">
-        <v>-0.08912266241107834</v>
+        <v>-0.09832485987237426</v>
       </c>
       <c r="G72">
-        <v>0.1093228072507326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1019031514259011</v>
+      </c>
+      <c r="H72">
+        <v>0.1502411257349583</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2506401068213813</v>
+        <v>-0.2408543663015993</v>
       </c>
       <c r="C73">
-        <v>0.06078037494483234</v>
+        <v>0.0475190995115474</v>
       </c>
       <c r="D73">
-        <v>0.05410875569751915</v>
+        <v>-0.06776629471126773</v>
       </c>
       <c r="E73">
-        <v>0.002086031275780993</v>
+        <v>0.07829250951684123</v>
       </c>
       <c r="F73">
-        <v>-0.226090655314563</v>
+        <v>-0.05823213093535978</v>
       </c>
       <c r="G73">
-        <v>0.4852785789562838</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.183991435139</v>
+      </c>
+      <c r="H73">
+        <v>0.507874471158409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1300786228294387</v>
+        <v>-0.1189804777443641</v>
       </c>
       <c r="C74">
-        <v>0.04017807548698853</v>
+        <v>0.05076332007677285</v>
       </c>
       <c r="D74">
-        <v>0.03430854195188142</v>
+        <v>-0.09090549239669381</v>
       </c>
       <c r="E74">
-        <v>-0.01754029994230773</v>
+        <v>0.002655790862335096</v>
       </c>
       <c r="F74">
-        <v>0.09425662308582185</v>
+        <v>-0.07147876074121309</v>
       </c>
       <c r="G74">
-        <v>0.02738376234456057</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07495375749638657</v>
+      </c>
+      <c r="H74">
+        <v>-0.01006181704770678</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2192773628731238</v>
+        <v>-0.2280718544317079</v>
       </c>
       <c r="C75">
-        <v>0.1189995039479414</v>
+        <v>0.09992922860131294</v>
       </c>
       <c r="D75">
-        <v>0.0831870273063456</v>
+        <v>-0.1437977298595153</v>
       </c>
       <c r="E75">
-        <v>-0.0699492036386275</v>
+        <v>0.01817497389222043</v>
       </c>
       <c r="F75">
-        <v>0.1680284763373732</v>
+        <v>-0.1489456244522971</v>
       </c>
       <c r="G75">
-        <v>-0.04945336985708701</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1579888394898658</v>
+      </c>
+      <c r="H75">
+        <v>-0.08863026534017705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2739053691376387</v>
+        <v>-0.2067036294220002</v>
       </c>
       <c r="C76">
-        <v>0.1261618284281661</v>
+        <v>0.09492171191437512</v>
       </c>
       <c r="D76">
-        <v>0.02023813585799572</v>
+        <v>-0.1339398244487223</v>
       </c>
       <c r="E76">
-        <v>-0.03939815811358695</v>
+        <v>-0.02341657112320122</v>
       </c>
       <c r="F76">
-        <v>0.2022689400330139</v>
+        <v>-0.14500159491756</v>
       </c>
       <c r="G76">
-        <v>-0.05507688717398376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1722198542560302</v>
+      </c>
+      <c r="H76">
+        <v>-0.09295626252382118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1417807968824549</v>
+        <v>-0.07325319207433824</v>
       </c>
       <c r="C77">
-        <v>-0.02766149329932889</v>
+        <v>0.00850100215206432</v>
       </c>
       <c r="D77">
-        <v>0.06135433569443966</v>
+        <v>-0.07566910906134967</v>
       </c>
       <c r="E77">
-        <v>-0.1059683638038234</v>
+        <v>0.01115223960013641</v>
       </c>
       <c r="F77">
-        <v>-0.2200718096504725</v>
+        <v>0.004954967703023913</v>
       </c>
       <c r="G77">
-        <v>-0.1408825524292596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1324143789780134</v>
+      </c>
+      <c r="H77">
+        <v>-0.06902752753392173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05515837545323087</v>
+        <v>-0.03677753569881337</v>
       </c>
       <c r="C78">
-        <v>0.0126033861328091</v>
+        <v>0.009669219194414149</v>
       </c>
       <c r="D78">
-        <v>0.03879145228117421</v>
+        <v>-0.06004758718475088</v>
       </c>
       <c r="E78">
-        <v>-0.1029185857787739</v>
+        <v>-0.003379765586055486</v>
       </c>
       <c r="F78">
-        <v>-0.038854471534347</v>
+        <v>-0.04461365643473231</v>
       </c>
       <c r="G78">
-        <v>-0.05595511493862921</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06055917549072252</v>
+      </c>
+      <c r="H78">
+        <v>0.02565358151713092</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2134561000986112</v>
+        <v>-0.162118380645955</v>
       </c>
       <c r="C80">
-        <v>-0.1331311104078221</v>
+        <v>0.04696010801771582</v>
       </c>
       <c r="D80">
-        <v>-0.9160598316238527</v>
+        <v>-0.01515706072668279</v>
       </c>
       <c r="E80">
-        <v>-0.2795276025205068</v>
+        <v>-0.9606615889995372</v>
       </c>
       <c r="F80">
-        <v>0.004136070559048759</v>
+        <v>0.1521781164884108</v>
       </c>
       <c r="G80">
-        <v>0.01729328328208525</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.0901388738666772</v>
+      </c>
+      <c r="H80">
+        <v>0.007816727626041761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1594618841002725</v>
+        <v>-0.150338171179735</v>
       </c>
       <c r="C81">
-        <v>0.08998902962558712</v>
+        <v>0.06512091753417509</v>
       </c>
       <c r="D81">
-        <v>0.02867624351022531</v>
+        <v>-0.08989702565072</v>
       </c>
       <c r="E81">
-        <v>-0.04868779671042174</v>
+        <v>-0.005400621269454564</v>
       </c>
       <c r="F81">
-        <v>0.1709778402494863</v>
+        <v>-0.09631733724137793</v>
       </c>
       <c r="G81">
-        <v>-0.01620587455100548</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1049824372164141</v>
+      </c>
+      <c r="H81">
+        <v>-0.06626256832403735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05340297529303512</v>
+        <v>-0.03715481648996544</v>
       </c>
       <c r="C83">
-        <v>-0.009640617732209977</v>
+        <v>0.006701745125637358</v>
       </c>
       <c r="D83">
-        <v>0.03934859908756626</v>
+        <v>-0.02244328292443193</v>
       </c>
       <c r="E83">
-        <v>-0.026307398461469</v>
+        <v>0.01295079830864502</v>
       </c>
       <c r="F83">
-        <v>-0.06012503535248435</v>
+        <v>-0.01025353142813456</v>
       </c>
       <c r="G83">
-        <v>-0.05043760545730465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05764505940119542</v>
+      </c>
+      <c r="H83">
+        <v>0.01664622931758606</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2393667122141548</v>
+        <v>-0.2142667852122253</v>
       </c>
       <c r="C85">
-        <v>0.108065580893326</v>
+        <v>0.08190364769372933</v>
       </c>
       <c r="D85">
-        <v>0.05691493091860011</v>
+        <v>-0.1475725868269169</v>
       </c>
       <c r="E85">
-        <v>-0.04533895595393529</v>
+        <v>0.01073994052511846</v>
       </c>
       <c r="F85">
-        <v>0.1838129945075006</v>
+        <v>-0.1300275416508412</v>
       </c>
       <c r="G85">
-        <v>-0.07326182687670438</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1686382354113605</v>
+      </c>
+      <c r="H85">
+        <v>-0.05931416582082431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0007500195508950367</v>
+        <v>-0.01692533714132189</v>
       </c>
       <c r="C86">
-        <v>-0.01170087964005062</v>
+        <v>-0.001341732865383346</v>
       </c>
       <c r="D86">
-        <v>-0.0004933921676302491</v>
+        <v>-0.007289226994064862</v>
       </c>
       <c r="E86">
-        <v>-0.04606949493803189</v>
+        <v>0.01101172284098488</v>
       </c>
       <c r="F86">
-        <v>-0.06460687944048721</v>
+        <v>0.003463908478664103</v>
       </c>
       <c r="G86">
-        <v>-0.02036841453321692</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08812996623070671</v>
+      </c>
+      <c r="H86">
+        <v>0.03650304906707141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0324243952766826</v>
+        <v>-0.02876758070806878</v>
       </c>
       <c r="C87">
-        <v>0.006132116566630662</v>
+        <v>0.002786246096335294</v>
       </c>
       <c r="D87">
-        <v>0.01335670953925827</v>
+        <v>-0.02945020700616369</v>
       </c>
       <c r="E87">
-        <v>-0.03442382010011586</v>
+        <v>0.00150055241549083</v>
       </c>
       <c r="F87">
-        <v>-0.08320281494850182</v>
+        <v>-0.02163050377494732</v>
       </c>
       <c r="G87">
-        <v>-0.001306982106238794</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09615309695549341</v>
+      </c>
+      <c r="H87">
+        <v>0.02597728160278449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009747961207192672</v>
+        <v>-0.03776944681867081</v>
       </c>
       <c r="C88">
-        <v>0.01465971772272178</v>
+        <v>-0.01057778708672715</v>
       </c>
       <c r="D88">
-        <v>-0.02084394570205662</v>
+        <v>-0.00086990268754299</v>
       </c>
       <c r="E88">
-        <v>0.00169260171700917</v>
+        <v>-0.009302777479006274</v>
       </c>
       <c r="F88">
-        <v>-0.02707967679388019</v>
+        <v>-0.01224391024793928</v>
       </c>
       <c r="G88">
-        <v>-0.06812892908314183</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004632053368797983</v>
+      </c>
+      <c r="H88">
+        <v>0.007788749662732009</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1163408727840324</v>
+        <v>-0.2403143942955686</v>
       </c>
       <c r="C89">
-        <v>0.09244254432146813</v>
+        <v>0.04384584789996569</v>
       </c>
       <c r="D89">
-        <v>-0.04808172354347602</v>
+        <v>0.3254898403404294</v>
       </c>
       <c r="E89">
-        <v>0.2743403171540649</v>
+        <v>0.07447977455842941</v>
       </c>
       <c r="F89">
-        <v>-0.1411653870024449</v>
+        <v>0.1205080026775394</v>
       </c>
       <c r="G89">
-        <v>-0.006911191052385255</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.003261977008848332</v>
+      </c>
+      <c r="H89">
+        <v>-0.03506345075054185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1109261816530794</v>
+        <v>-0.1940697787319039</v>
       </c>
       <c r="C90">
-        <v>0.0894897807841994</v>
+        <v>0.0363114495449822</v>
       </c>
       <c r="D90">
-        <v>-0.09251240531139406</v>
+        <v>0.2861582130373347</v>
       </c>
       <c r="E90">
-        <v>0.2932794992161251</v>
+        <v>0.04953409812217287</v>
       </c>
       <c r="F90">
-        <v>-0.1030187042038457</v>
+        <v>0.1255635075904763</v>
       </c>
       <c r="G90">
-        <v>0.01443524671349283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04213458310162718</v>
+      </c>
+      <c r="H90">
+        <v>-0.04508255536578138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2918378731175817</v>
+        <v>-0.2357795988876753</v>
       </c>
       <c r="C91">
-        <v>0.09648148892060293</v>
+        <v>0.1010244538032482</v>
       </c>
       <c r="D91">
-        <v>0.07309494885019283</v>
+        <v>-0.14279583631514</v>
       </c>
       <c r="E91">
-        <v>-0.02503528306576718</v>
+        <v>0.01077491361570482</v>
       </c>
       <c r="F91">
-        <v>0.258480546243719</v>
+        <v>-0.1357301413732864</v>
       </c>
       <c r="G91">
-        <v>-0.03160682320790477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2027957160967561</v>
+      </c>
+      <c r="H91">
+        <v>-0.1209261844427229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1844376131528699</v>
+        <v>-0.2464596841527637</v>
       </c>
       <c r="C92">
-        <v>0.09816725595184608</v>
+        <v>0.09773614950523518</v>
       </c>
       <c r="D92">
-        <v>-0.1192124392404828</v>
+        <v>0.2275427381247425</v>
       </c>
       <c r="E92">
-        <v>0.456947496470579</v>
+        <v>0.03103765315498944</v>
       </c>
       <c r="F92">
-        <v>-0.05195010543314472</v>
+        <v>0.09968569192607608</v>
       </c>
       <c r="G92">
-        <v>-0.476387869213949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04802514462527479</v>
+      </c>
+      <c r="H92">
+        <v>-0.1440940850186743</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1172335058131752</v>
+        <v>-0.2178580778314269</v>
       </c>
       <c r="C93">
-        <v>0.07225249268847972</v>
+        <v>0.0467472702356207</v>
       </c>
       <c r="D93">
-        <v>-0.1072374570996857</v>
+        <v>0.3067267104356128</v>
       </c>
       <c r="E93">
-        <v>0.4034241098527099</v>
+        <v>0.0645419746179851</v>
       </c>
       <c r="F93">
-        <v>-0.0686880220672875</v>
+        <v>0.1612603448104336</v>
       </c>
       <c r="G93">
-        <v>0.08160881032887179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05396553978214828</v>
+      </c>
+      <c r="H93">
+        <v>0.01329728443294419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2678661330722605</v>
+        <v>-0.2530150834300665</v>
       </c>
       <c r="C94">
-        <v>0.1441958111224265</v>
+        <v>0.08905246463902886</v>
       </c>
       <c r="D94">
-        <v>0.05528462096391037</v>
+        <v>-0.1278145235970871</v>
       </c>
       <c r="E94">
-        <v>-0.04280131538418069</v>
+        <v>0.02768995567489512</v>
       </c>
       <c r="F94">
-        <v>0.3162157878899509</v>
+        <v>-0.1626550159664197</v>
       </c>
       <c r="G94">
-        <v>0.03081220148127542</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2121804769246833</v>
+      </c>
+      <c r="H94">
+        <v>-0.133640871038448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08043617885067458</v>
+        <v>-0.0620166559277837</v>
       </c>
       <c r="C95">
-        <v>0.0001597322461122035</v>
+        <v>0.03020988928782706</v>
       </c>
       <c r="D95">
-        <v>0.08448801590215559</v>
+        <v>-0.09137030703264985</v>
       </c>
       <c r="E95">
-        <v>-0.07977355358650924</v>
+        <v>0.07198023718026818</v>
       </c>
       <c r="F95">
-        <v>-0.02745292285769098</v>
+        <v>-0.02466380778740723</v>
       </c>
       <c r="G95">
-        <v>-0.2264440842867901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.0607763400449161</v>
+      </c>
+      <c r="H95">
+        <v>0.003701111581559274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1900584907864304</v>
+        <v>-0.1819145622672454</v>
       </c>
       <c r="C98">
-        <v>0.03055031430447674</v>
+        <v>0.06825878589392192</v>
       </c>
       <c r="D98">
-        <v>0.03339882375675781</v>
+        <v>-0.042588348401132</v>
       </c>
       <c r="E98">
-        <v>0.03842967595236494</v>
+        <v>0.05125931893201988</v>
       </c>
       <c r="F98">
-        <v>-0.1048611616292063</v>
+        <v>-0.02075392260613873</v>
       </c>
       <c r="G98">
-        <v>0.3463875689248123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1552151592636448</v>
+      </c>
+      <c r="H98">
+        <v>0.3669840738665693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005925686279804681</v>
+        <v>-0.01586664212586331</v>
       </c>
       <c r="C101">
-        <v>0.019857458357534</v>
+        <v>0.0001022255960393337</v>
       </c>
       <c r="D101">
-        <v>0.01546579587511147</v>
+        <v>-0.005389919354832192</v>
       </c>
       <c r="E101">
-        <v>-0.1188451479750386</v>
+        <v>-0.005377958624502935</v>
       </c>
       <c r="F101">
-        <v>-0.1405803264298784</v>
+        <v>-0.02856734994548309</v>
       </c>
       <c r="G101">
-        <v>-0.1274868471277556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1023044745056412</v>
+      </c>
+      <c r="H101">
+        <v>-0.07188827410806724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09751644067452017</v>
+        <v>-0.1029922542949495</v>
       </c>
       <c r="C102">
-        <v>0.0293953581011993</v>
+        <v>0.0316737212165641</v>
       </c>
       <c r="D102">
-        <v>0.02332984708460149</v>
+        <v>-0.07395660029208383</v>
       </c>
       <c r="E102">
-        <v>-0.05741962833924637</v>
+        <v>-0.001668402945015148</v>
       </c>
       <c r="F102">
-        <v>0.1330322347673865</v>
+        <v>-0.06389881059170661</v>
       </c>
       <c r="G102">
-        <v>-0.07016400079248435</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09458326056088885</v>
+      </c>
+      <c r="H102">
+        <v>-0.05176160915423559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02555348108322306</v>
+        <v>-0.02006635858231401</v>
       </c>
       <c r="C103">
-        <v>0.01217626695872954</v>
+        <v>0.007358773221811138</v>
       </c>
       <c r="D103">
-        <v>0.01266483924162922</v>
+        <v>-0.01622476592706392</v>
       </c>
       <c r="E103">
-        <v>-0.005171959385445108</v>
+        <v>-0.006825751475795696</v>
       </c>
       <c r="F103">
-        <v>0.01455623130646094</v>
+        <v>-0.01730172656634241</v>
       </c>
       <c r="G103">
-        <v>-0.02037837573598797</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006147331557190485</v>
+      </c>
+      <c r="H103">
+        <v>-0.01141556574467296</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2702688523654141</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9429542117360542</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.03716437535370368</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02879296802926247</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1570115047504261</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03621849183026671</v>
+      </c>
+      <c r="H104">
+        <v>-0.03015328044401544</v>
       </c>
     </row>
   </sheetData>
